--- a/Doc/DataBaseSchemeNew.xlsx
+++ b/Doc/DataBaseSchemeNew.xlsx
@@ -169,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +231,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2071,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,7 +2213,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2243,7 +2250,7 @@
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2279,7 +2286,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>26</v>
       </c>
     </row>
